--- a/problems.xlsx
+++ b/problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\wash-feet-and-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troh/Documents/wash-feet-and-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B379A4DB-04AD-44C9-A709-132CC017D350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA57055-5398-9E4B-8660-0D5D65E7F71C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1665" windowWidth="17835" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,13 +75,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -90,7 +90,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +98,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -131,8 +131,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,20 +412,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>

--- a/problems.xlsx
+++ b/problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troh/Documents/wash-feet-and-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\wash-feet-and-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA57055-5398-9E4B-8660-0D5D65E7F71C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BD6E9E-7DCA-4EF5-85DC-AC1DCAE52F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Anagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bla bla bla</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No. Solutions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,11 +47,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pallindrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.daum.com</t>
+    <t>유효한 팰린드롬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 문자열이 팰린드롬인지 확인하라. 대소문자를 구분하지 않으며, 영문자와 숫자만을 대상으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.138-144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 뒤집기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열을 뒤집는 함수를 작성하라. 입력값은 문자 배열이며, 리턴 없이 리스트 내부를 직접 조작하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.145-147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 파일 재정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그를 재정렬하라. 기준은 다음과 같다.
+1. 로그의 가장 앞 부분은 식별자다.
+2. 문자로 구성된 로그가 숫자 로그보다 앞에 온다.
+3. 식별자는 순서에 영향을 끼치지 않지만, 문자가 동일할 경우 식별자 순으로 한다.
+4. 숫자 로그는 입력 순서대로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-data-in-log-files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.148-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 흔한 단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지된 단어를 제외한 가장 흔하게 등장하는 단어를 출력하라. 대소문자 구분을 하지 않으며, 구두점(마침표, 쉼표 등) 또한 무시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-common-word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.151-152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 애너그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 배열을 받아 애너그램 단위로 그룹핑하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.153-158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 팰린드롬 부분 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 팰린드롬 부분 문자열을 출력하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.159-165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 수의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덧셈하여 타켓을 만들 수 있는 배열의 두 숫자 인덱스를 리턴하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7.173-179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗물 트래핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높이를 입력받아 비 온 후 얼마나 물이 쌓일 수 있는지 계산하라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7.180-183</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,13 +187,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -90,7 +202,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +210,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -125,14 +237,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,79 +525,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.875" customWidth="1"/>
+    <col min="3" max="3" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E473ECAE-0032-4317-B7E9-AD65E74FB3B2}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{FBC8B2E3-E4C7-4516-8A17-6561747D7E69}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{52BF22CA-7293-45B0-9BF3-7DE7F24A5696}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{91369F8C-B03A-4579-854B-210B8334CE93}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{48E434B0-90D5-4FC3-9BC5-75A971BE37F6}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{61AD7EA3-4FC2-4B10-A879-728C9E89CD09}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{EB1147C8-2153-44C4-8BC7-FAEE2DFA7ECD}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{8285A456-5E92-403F-8D53-48088680A390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>